--- a/cableado-estructurado.xlsx
+++ b/cableado-estructurado.xlsx
@@ -162,17 +162,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,82 +216,36 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>13939</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>306658</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>106866</xdr:rowOff>
+      <xdr:rowOff>78988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>65048</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88280</xdr:rowOff>
+      <xdr:rowOff>102220</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector recto 2"/>
+        <xdr:cNvPr id="8" name="Conector recto 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="701598" y="297366"/>
-          <a:ext cx="748061" cy="362414"/>
+        <a:xfrm flipV="1">
+          <a:off x="613317" y="269488"/>
+          <a:ext cx="901390" cy="404232"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="127000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3717</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13939</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>97573</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector recto 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="691376" y="482290"/>
-          <a:ext cx="772222" cy="758283"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -293,32 +269,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>379142</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88280</xdr:rowOff>
+      <xdr:colOff>325243</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100361</xdr:rowOff>
+      <xdr:colOff>60402</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector recto 7"/>
+        <xdr:cNvPr id="12" name="Conector recto 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="685801" y="278780"/>
-          <a:ext cx="763858" cy="393081"/>
+        <a:xfrm>
+          <a:off x="631902" y="854927"/>
+          <a:ext cx="878159" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="127000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -342,32 +320,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>371707</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>110584</xdr:rowOff>
+      <xdr:colOff>331750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>8363</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>130098</xdr:rowOff>
+      <xdr:colOff>69695</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99431</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector recto 9"/>
+        <xdr:cNvPr id="14" name="Conector recto 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="678366" y="491584"/>
-          <a:ext cx="779656" cy="781514"/>
+          <a:off x="638409" y="1050073"/>
+          <a:ext cx="880945" cy="1858"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="127000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -391,32 +372,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360556</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>72483</xdr:rowOff>
+      <xdr:colOff>325243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9292</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>92927</xdr:rowOff>
+      <xdr:colOff>69695</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102220</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector recto 11"/>
+        <xdr:cNvPr id="16" name="Conector recto 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="667215" y="834483"/>
-          <a:ext cx="791736" cy="20444"/>
+          <a:off x="631902" y="1431073"/>
+          <a:ext cx="887452" cy="4647"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="127000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -440,32 +423,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>368920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>118017</xdr:rowOff>
+      <xdr:colOff>306658</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9292</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120805</xdr:rowOff>
+      <xdr:colOff>65048</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto 13"/>
+        <xdr:cNvPr id="17" name="Conector recto 16"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="675579" y="1070517"/>
-          <a:ext cx="783372" cy="2788"/>
+        <a:xfrm flipV="1">
+          <a:off x="613317" y="1621573"/>
+          <a:ext cx="901390" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="127000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -489,32 +474,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>368919</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>90139</xdr:rowOff>
+      <xdr:colOff>334536</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>55756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>17655</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>110583</xdr:rowOff>
+      <xdr:colOff>65048</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111512</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto 15"/>
+        <xdr:cNvPr id="3" name="Conector recto 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="675578" y="1423639"/>
-          <a:ext cx="791736" cy="20444"/>
+          <a:off x="641195" y="246256"/>
+          <a:ext cx="873512" cy="436756"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="127000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -538,32 +526,79 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>377283</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>135673</xdr:rowOff>
+      <xdr:colOff>306658</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>17655</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138461</xdr:rowOff>
+      <xdr:colOff>51109</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector recto 16"/>
+        <xdr:cNvPr id="10" name="Conector recto 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="613317" y="441402"/>
+          <a:ext cx="887451" cy="859574"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="127000"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>339182</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60402</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683942" y="1659673"/>
-          <a:ext cx="783372" cy="2788"/>
+          <a:off x="645841" y="441402"/>
+          <a:ext cx="864220" cy="840988"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="127000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -853,23 +888,23 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -880,7 +915,7 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
@@ -891,10 +926,10 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -905,7 +940,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -919,10 +954,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E5">
@@ -933,10 +968,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E6">
@@ -947,10 +982,10 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -961,10 +996,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E8">
@@ -975,10 +1010,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E9">

--- a/cableado-estructurado.xlsx
+++ b/cableado-estructurado.xlsx
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,41 +158,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,14 +904,14 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -909,114 +925,114 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
     </row>
